--- a/Financial Prognosis.xlsx
+++ b/Financial Prognosis.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Telerik\Courses\Business Skills\Final project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Telerik\TeamWork\BusinessSkills\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7170" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7170"/>
   </bookViews>
   <sheets>
     <sheet name="BEP" sheetId="9" r:id="rId1"/>
@@ -1540,11 +1540,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1731270512"/>
-        <c:axId val="-1731269424"/>
+        <c:axId val="984697936"/>
+        <c:axId val="984696848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1731270512"/>
+        <c:axId val="984697936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1601,12 +1601,12 @@
             <a:endParaRPr lang="bg-BG"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1731269424"/>
+        <c:crossAx val="984696848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1731269424"/>
+        <c:axId val="984696848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1663,7 +1663,7 @@
             <a:endParaRPr lang="bg-BG"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1731270512"/>
+        <c:crossAx val="984697936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2320,7 +2320,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2570,8 +2570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3661,8 +3661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3895,7 +3895,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Financial Prognosis.xlsx
+++ b/Financial Prognosis.xlsx
@@ -5,19 +5,20 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Telerik\TeamWork\BusinessSkills\trunk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dimitar\Documents\Visual Studio 2013\Projects\BusinessSkills\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7170"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7170" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="BEP" sheetId="9" r:id="rId1"/>
     <sheet name="Startup Costs" sheetId="12" r:id="rId2"/>
     <sheet name="ROI" sheetId="13" r:id="rId3"/>
     <sheet name="Costs" sheetId="10" r:id="rId4"/>
-    <sheet name="Bank credit" sheetId="11" r:id="rId5"/>
-    <sheet name="Calculations" sheetId="5" state="hidden" r:id="rId6"/>
+    <sheet name="Chart1" sheetId="14" r:id="rId5"/>
+    <sheet name="Bank credit" sheetId="11" r:id="rId6"/>
+    <sheet name="Calculations" sheetId="5" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="AfterRetirement">#REF!&gt;=DesiredRetirementAge</definedName>
@@ -906,7 +907,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="bg-BG"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1540,11 +1541,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="984697936"/>
-        <c:axId val="984696848"/>
+        <c:axId val="-9235600"/>
+        <c:axId val="-9232880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="984697936"/>
+        <c:axId val="-9235600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1598,15 +1599,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="bg-BG"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="984696848"/>
+        <c:crossAx val="-9232880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="984696848"/>
+        <c:axId val="-9232880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1660,10 +1661,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="bg-BG"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="984697936"/>
+        <c:crossAx val="-9235600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1703,7 +1704,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="bg-BG"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1733,7 +1734,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="bg-BG"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1744,7 +1745,950 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Break</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> even analysis</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BEP!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>BEP!$A$7:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>BEP!$B$7:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>"лв."#,##0.00_);[Red]\("лв."#,##0.00\)</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28500</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31500</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>33000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BEP!$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fixed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>BEP!$A$7:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>BEP!$E$7:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>"лв."#,##0.00_);[Red]\("лв."#,##0.00\)</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>12070</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12070</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12070</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12070</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12070</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12070</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12070</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12070</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12070</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12070</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12070</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12070</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12070</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12070</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12070</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12070</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12070</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12070</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12070</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12070</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12070</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12070</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12070</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BEP!$F$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Costs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>BEP!$A$7:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>BEP!$F$7:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>"лв."#,##0.00_);[Red]\("лв."#,##0.00\)</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>12070</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12125.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12180.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12235.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12291</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12346.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12401.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12456.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12567.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12622.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12677.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12733</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12788.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12843.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12898.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12954</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13009.25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13064.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13119.75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13175</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13230.25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13285.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BEP!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Aprox BEU = 418</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>BEP!$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>418</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>BEP!$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>"лв."#,##0.00_);[Red]\("лв."#,##0.00\)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>12540</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1931889584"/>
+        <c:axId val="-1931889040"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1931889584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1931889040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1931889040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;лв.&quot;#,##0.00_);[Red]\(&quot;лв.&quot;#,##0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1931889584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2300,6 +3244,534 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2320,7 +3792,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2338,6 +3810,33 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9296400" cy="6070600"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2570,9 +4069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
